--- a/sampleExcelout.xlsx
+++ b/sampleExcelout.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>請求・明細書 (INVOICE)</t>
   </si>
@@ -230,13 +230,10 @@
     <t>We are looking forward seeing you again.</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t/>
+    <t>a</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1513,7 @@
     <row r="9" spans="1:9" ht="16.05" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1601,22 +1598,22 @@
     <row r="14" spans="1:9" ht="16.05" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="7" t="n">
-        <v>44594.0</v>
+        <v>44601.0</v>
       </c>
       <c r="C14" s="6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>44602.0</v>
+      </c>
+      <c r="E14" s="6" t="n">
         <v>5.0</v>
       </c>
-      <c r="D14" s="7" t="n">
-        <v>44599.0</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>4.0</v>
-      </c>
       <c r="F14" s="7" t="n">
-        <v>44601.0</v>
+        <v>44616.0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -1693,15 +1690,15 @@
     <row r="20" spans="1:13" ht="16.05" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="52" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="55" t="n">
-        <v>5500.0</v>
-      </c>
-      <c r="F20" s="55" t="n">
-        <v>2.0</v>
+      <c r="E20" s="55">
+        <v>10</v>
+      </c>
+      <c r="F20" s="55">
+        <v>9200</v>
       </c>
       <c r="G20" s="51">
         <f t="shared" si="0"/>

--- a/sampleExcelout.xlsx
+++ b/sampleExcelout.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>請求・明細書 (INVOICE)</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1598,22 +1595,22 @@
     <row r="14" spans="1:9" ht="16.05" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="7" t="n">
-        <v>44601.0</v>
+        <v>44593.0</v>
       </c>
       <c r="C14" s="6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>44595.0</v>
+      </c>
+      <c r="E14" s="6" t="n">
         <v>1.0</v>
       </c>
-      <c r="D14" s="7" t="n">
-        <v>44602.0</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>5.0</v>
-      </c>
       <c r="F14" s="7" t="n">
-        <v>44616.0</v>
+        <v>44595.0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -1694,11 +1691,11 @@
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="55">
-        <v>10</v>
-      </c>
-      <c r="F20" s="55">
-        <v>9200</v>
+      <c r="E20" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="55" t="n">
+        <v>15000.0</v>
       </c>
       <c r="G20" s="51">
         <f t="shared" si="0"/>
